--- a/src/test/resources/Manual test cases.xlsx
+++ b/src/test/resources/Manual test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarow\eclipse-workspace\Batch 29\automation-framework-luma-practice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923592FE-2004-40B7-9A9B-BAD9457BDE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB76119-9F65-45FE-8510-82E4177DE47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{7EA2D529-03B6-4834-81E1-126B65E382A8}"/>
   </bookViews>
